--- a/Sets-Ose_global.xlsx
+++ b/Sets-Ose_global.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\osemosys_India\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\OSeMOSYS_EUWest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A756A209-C2A4-4DC1-9C3D-509F097EFC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EBEBEA-67C9-4626-B2FE-203A5AE0419E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{91160169-4669-41EB-968B-C98B54EC51CB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="92">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -307,6 +307,12 @@
   </si>
   <si>
     <t>TRN*,PWRTRN*</t>
+  </si>
+  <si>
+    <t>TRN*</t>
+  </si>
+  <si>
+    <t>Trade</t>
   </si>
 </sst>
 </file>
@@ -889,12 +895,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71754C8A-E599-4286-919F-11B5789CC171}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A46" sqref="A46"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -988,7 +994,7 @@
         <v>68</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" ref="F8:F27" si="0">PROPER(MID(B8,4,3))</f>
+        <f t="shared" ref="F8:F28" si="0">PROPER(MID(B8,4,3))</f>
         <v>Bio</v>
       </c>
     </row>
@@ -1161,6 +1167,14 @@
       <c r="F27" t="str">
         <f t="shared" si="0"/>
         <v>Won</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
